--- a/ml-proj-simcse-clone-for-analysis/code investigate.xlsx
+++ b/ml-proj-simcse-clone-for-analysis/code investigate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace\my-public-examples\ml-proj-simcse-clone-for-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120DB2BC-2429-42BC-A68B-75AA31EC9BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2B6E9-A71F-4A76-9752-F6ED918EEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76B5CA46-A3CB-474E-A219-527CECC4C43D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{76B5CA46-A3CB-474E-A219-527CECC4C43D}"/>
   </bookViews>
   <sheets>
     <sheet name="unsupervised simcse" sheetId="1" r:id="rId1"/>
@@ -1676,13 +1676,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581532</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>142975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1720,13 +1720,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>9633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1764,13 +1764,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114571</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>171554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1808,13 +1808,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>200393</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>171554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1852,13 +1852,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85992</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>66791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1896,13 +1896,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>229057</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>95370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1940,13 +1940,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381138</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>171527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1982,287 +1982,287 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390871</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>162090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36EAE40-E7C7-4C09-BEDD-F542011DA5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="28889325"/>
+          <a:ext cx="2476846" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352594</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>85789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAC8DA8-5CE1-4A95-949A-595353F592D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="28203525"/>
+          <a:ext cx="1209844" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38446</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>38265</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36EAE40-E7C7-4C09-BEDD-F542011DA5C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="29146500"/>
-          <a:ext cx="2476846" cy="1181265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>201194</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>162159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DB3FAF-4199-48BA-A0D0-D3D7B017CC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="28775025"/>
+          <a:ext cx="8373644" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>448844</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>152634</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA99288-953F-D041-9D38-6FEDFEEEA0A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="29146500"/>
-          <a:ext cx="8373644" cy="1676634"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>428961</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>85882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CB47E1-185F-41BA-B1BC-2ACA67E1323F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18135600" y="29632275"/>
+          <a:ext cx="2410161" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>457718</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>114478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5048192-482A-4099-8E3D-9D02226A60AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17468850" y="28174950"/>
+          <a:ext cx="3715268" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600244</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>76264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAC8DA8-5CE1-4A95-949A-595353F592D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="28194000"/>
-          <a:ext cx="1209844" cy="457264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581361</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>171607</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA2A28D-07C4-0C80-431D-7EB52C6653D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="32004000"/>
-          <a:ext cx="2410161" cy="1124107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>544534</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>181234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F8BCA0-1AF1-4A1D-8F13-A560F2AB2453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="28232100"/>
+          <a:ext cx="11526859" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>133528</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD30FDA8-716C-D62D-E09E-D78DC59BED5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="33337500"/>
-          <a:ext cx="3715268" cy="1276528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>554059</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>143134</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C288CFE-B97B-D210-EEAA-70B0F218443D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="35052000"/>
-          <a:ext cx="11526859" cy="1857634"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>429961</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>86774</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39A0092-B931-6A48-9FE7-E645043C4ACC}"/>
+      <xdr:colOff>553786</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>29624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218BCB2A-827D-4468-866E-A9DEC3A606AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="37147500"/>
+          <a:off x="1952625" y="30232350"/>
           <a:ext cx="9573961" cy="7516274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2292,21 +2292,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>48482</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>123975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50F9043-718B-4AAC-A6BD-D77D77F15AEE}"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9178B63D-0DC1-4644-ADBE-57A2D677B771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2322,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="45720000"/>
+          <a:off x="609600" y="44005500"/>
           <a:ext cx="6144482" cy="1076475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2336,21 +2336,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133964</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>162027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8738ECBE-6580-48A0-8F8B-B05D4D2FD5BE}"/>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D516B8-EB46-4E03-AC68-DADEA8928676}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,8 +2366,105 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="47053500"/>
+          <a:off x="1219200" y="45339000"/>
           <a:ext cx="4401164" cy="733527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC231C9-EB0F-F003-1977-5237245A8A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="21688425"/>
+          <a:ext cx="3705225" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>315306</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C39C8C-0E3C-0B06-2099-A6DEC4C28D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="20574000"/>
+          <a:ext cx="7030431" cy="3524742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2678,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B12113-82E7-47E0-A16D-A8FA838813AC}">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8616F6E-550B-4684-A136-21968BE9E76D}">
   <dimension ref="A3:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="N241" sqref="N241"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
